--- a/data/protect_data.xlsx
+++ b/data/protect_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YangL\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A07836B-C655-425F-AECD-1D66860CBE28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="13065" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="  数据清洗" sheetId="7" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="506">
   <si>
     <t>大分类</t>
   </si>
@@ -761,7 +767,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-CHD</t>
     </r>
@@ -790,7 +796,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -825,7 +831,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Compared with the wild AA genotype</t>
     </r>
@@ -843,7 +849,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>heterozygosity AC had a lower risk of CHD.</t>
     </r>
@@ -914,7 +920,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>MTHFR A1298C-</t>
     </r>
@@ -932,7 +938,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>C</t>
     </r>
@@ -950,7 +956,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -979,7 +985,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>MTHFR</t>
     </r>
@@ -997,7 +1003,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -1015,7 +1021,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>C</t>
     </r>
@@ -1033,7 +1039,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A1298C</t>
     </r>
@@ -1051,7 +1057,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -1069,7 +1075,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.53)</t>
     </r>
@@ -1104,7 +1110,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>MTHFR A1298C</t>
     </r>
@@ -1122,7 +1128,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -1151,7 +1157,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>MTHFR</t>
     </r>
@@ -1169,7 +1175,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -1187,7 +1193,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>C</t>
     </r>
@@ -1205,7 +1211,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A1298C</t>
     </r>
@@ -1223,7 +1229,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -1241,7 +1247,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.41)</t>
     </r>
@@ -1261,7 +1267,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -1347,7 +1353,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -1365,7 +1371,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>: GC</t>
     </r>
@@ -1383,7 +1389,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -1412,7 +1418,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -1430,7 +1436,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN</t>
     </r>
@@ -1448,7 +1454,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -1466,7 +1472,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>: GC)</t>
     </r>
@@ -1484,7 +1490,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.52</t>
     </r>
@@ -1525,7 +1531,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -1543,7 +1549,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>: CC</t>
     </r>
@@ -1561,7 +1567,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -1590,7 +1596,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -1608,7 +1614,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN</t>
     </r>
@@ -1626,7 +1632,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -1644,7 +1650,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>: CC)</t>
     </r>
@@ -1662,7 +1668,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.52</t>
     </r>
@@ -1709,7 +1715,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -1727,7 +1733,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>: C</t>
     </r>
@@ -1745,7 +1751,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -1774,7 +1780,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -1792,7 +1798,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN</t>
     </r>
@@ -1810,7 +1816,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -1828,7 +1834,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>C</t>
     </r>
@@ -1837,7 +1843,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1855,7 +1861,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.61</t>
     </r>
@@ -1914,7 +1920,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -1932,7 +1938,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN</t>
     </r>
@@ -1950,7 +1956,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -1968,7 +1974,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>: GC)</t>
     </r>
@@ -1986,7 +1992,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.60</t>
     </r>
@@ -2027,7 +2033,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -2045,7 +2051,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN</t>
     </r>
@@ -2063,7 +2069,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -2081,7 +2087,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>: CC)</t>
     </r>
@@ -2099,7 +2105,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.23</t>
     </r>
@@ -2146,7 +2152,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -2164,7 +2170,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN</t>
     </r>
@@ -2182,7 +2188,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -2200,7 +2206,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>C</t>
     </r>
@@ -2209,7 +2215,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2227,7 +2233,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.52</t>
     </r>
@@ -2286,7 +2292,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -2304,7 +2310,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN</t>
     </r>
@@ -2322,7 +2328,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -2340,7 +2346,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>: GC)</t>
     </r>
@@ -2358,7 +2364,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.65</t>
     </r>
@@ -2399,7 +2405,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -2417,7 +2423,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN</t>
     </r>
@@ -2435,7 +2441,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -2453,7 +2459,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>: CC)</t>
     </r>
@@ -2471,7 +2477,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.43</t>
     </r>
@@ -2515,7 +2521,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -2533,7 +2539,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN</t>
     </r>
@@ -2551,7 +2557,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -2569,7 +2575,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>C</t>
     </r>
@@ -2578,7 +2584,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2596,7 +2602,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.69</t>
     </r>
@@ -2655,7 +2661,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -2673,7 +2679,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN</t>
     </r>
@@ -2691,7 +2697,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -2709,7 +2715,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>: GC)</t>
     </r>
@@ -2727,7 +2733,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.56</t>
     </r>
@@ -2771,7 +2777,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -2789,7 +2795,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN</t>
     </r>
@@ -2807,7 +2813,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -2825,7 +2831,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>: CC)</t>
     </r>
@@ -2843,7 +2849,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.43</t>
     </r>
@@ -2887,7 +2893,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -2905,7 +2911,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>FIGN</t>
     </r>
@@ -2923,7 +2929,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> +94762G&gt;C (rs2119289)(</t>
     </r>
@@ -2941,7 +2947,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>C</t>
     </r>
@@ -2950,7 +2956,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2968,7 +2974,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.69</t>
     </r>
@@ -3042,7 +3048,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3060,7 +3066,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -3080,7 +3086,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3098,7 +3104,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -3116,7 +3122,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.85</t>
     </r>
@@ -3163,7 +3169,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -3192,7 +3198,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>CHD</t>
     </r>
@@ -3210,7 +3216,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.81</t>
     </r>
@@ -3272,7 +3278,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3290,7 +3296,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>VSD</t>
     </r>
@@ -3319,7 +3325,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3337,7 +3343,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>VSD</t>
     </r>
@@ -3355,7 +3361,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.78</t>
     </r>
@@ -3405,7 +3411,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3423,7 +3429,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>ASD</t>
     </r>
@@ -3443,7 +3449,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3461,7 +3467,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>ASD</t>
     </r>
@@ -3479,7 +3485,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.82</t>
     </r>
@@ -3529,7 +3535,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3547,7 +3553,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>PDA</t>
     </r>
@@ -3567,7 +3573,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3585,7 +3591,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>PDA</t>
     </r>
@@ -3603,7 +3609,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.81</t>
     </r>
@@ -3653,7 +3659,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3671,7 +3677,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>TOF</t>
     </r>
@@ -3691,7 +3697,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3709,7 +3715,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>TOF</t>
     </r>
@@ -3727,7 +3733,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.84</t>
     </r>
@@ -3777,7 +3783,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3795,7 +3801,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>PDA</t>
     </r>
@@ -3815,7 +3821,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3833,7 +3839,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>PDA</t>
     </r>
@@ -3851,7 +3857,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.84</t>
     </r>
@@ -3901,7 +3907,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3919,7 +3925,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>VSD</t>
     </r>
@@ -3939,7 +3945,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -3957,7 +3963,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>VSD</t>
     </r>
@@ -3975,7 +3981,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.76</t>
     </r>
@@ -4022,7 +4028,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -4040,7 +4046,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>TGA</t>
     </r>
@@ -4060,7 +4066,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -4078,7 +4084,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>TGA</t>
     </r>
@@ -4096,7 +4102,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.75</t>
     </r>
@@ -4146,7 +4152,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -4164,7 +4170,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>,COA</t>
     </r>
@@ -4184,7 +4190,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -4202,7 +4208,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>COA</t>
     </r>
@@ -4220,7 +4226,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>OR=0.71</t>
     </r>
@@ -4292,6 +4298,90 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">P-selectin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点突变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>827T/C:CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，人群患</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PAH-CHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率降低，与正常人TT型比较</t>
+    </r>
+  </si>
+  <si>
+    <t>P-selectin candidate gene SNPs---827T/C:CT+CC</t>
+  </si>
+  <si>
+    <t>Compared with the patients with TT genotype, the risk of PAH-CHD was decreased in subjects with CC and CT genotypes (OR=0.47, 95% CI=0.24-0.96).</t>
+  </si>
+  <si>
+    <t>PAH-CHD patients(P-selectin gene 827CT+CC)</t>
+  </si>
+  <si>
+    <t>controls(P-selectin gene 827CT+CC)</t>
+  </si>
+  <si>
+    <t>compared with the TT genotype, OR=0.47, 95% CI=0.24-0.96). P=0.016(PAH-CHD vs control)</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -4303,7 +4393,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">P-selectin </t>
     </r>
@@ -4321,7 +4411,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4339,17 +4429,659 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
+      </rPr>
+      <t>827T/C: CC+CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, PAH-CHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患病风险越小）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">P-selectin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点突变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>827T/C:CT+CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，人群患</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PAH-CHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率降低，与正常人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型比较</t>
+    </r>
+  </si>
+  <si>
+    <t>P-selectin candidate gene SNPs was not correlated with the susceptibility of PAH-CHD (P&gt;0.05). In addition, performing the analysis in patients with CHD and PAH-CHD, no significant correlation was observed in SNPs and disease susceptibility as well.</t>
+  </si>
+  <si>
+    <t>PAH-CHD patients</t>
+  </si>
+  <si>
+    <t>CHD patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 (30.23%) </t>
+  </si>
+  <si>
+    <t>32 (18.91) years</t>
+  </si>
+  <si>
+    <t>OR (95%CI)=0.36 (0.21-0.92), P=0.024(PAH-CHD vs CHD)</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">P-selectin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点突变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>827T/C:CT</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，人群患</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PAH-CHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率降低（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OR=0.36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">P-selectin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点突变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>827T/C:CT+CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，人群患</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PAH-CHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率降低（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OR=0.36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Food types eaten 3 or more times per week(Oranges, strawberries, raspberries, pineapple, kiwi, cantaloupe, lemons, limes)</t>
+  </si>
+  <si>
+    <t>Eating oranges and other folate rich fruits 3 times a week or more was associated with a significantly lower risk (OR 0.64, 95%CI 0.47–0.89)</t>
+  </si>
+  <si>
+    <t>CHD cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100(41.3%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">503(52.1%) </t>
+  </si>
+  <si>
+    <t>isolated CHD/non-isolated CHD</t>
+  </si>
+  <si>
+    <t>anomalies of the venous return/ASD/AVSD, OPD/AVC/HLHS/VSD/TOF, TGA/CoA/CACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk factors for congenital heart disease: The Baby Hearts Study, a population-based case-control study </t>
+  </si>
+  <si>
+    <t>adults(mother of CHD offspring)</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Belfast,Northern Ireland, United Kingdom</t>
+  </si>
+  <si>
+    <t>Eupopean</t>
+  </si>
+  <si>
+    <t>mother of CHD offspring</t>
+  </si>
+  <si>
+    <t>Multivariate analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To investigate the role of maternal environmental factors in the aetiology of CHD. </t>
+  </si>
+  <si>
+    <t>adjusted OR(95%CI)=0.64 (0.47–0.89)</t>
+  </si>
+  <si>
+    <t>Eating oranges and other folate rich fruits 3 times a week or more was associated with a significantly lower risk.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发病风险（每周吃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次或以上的富含叶酸食物（橙色，草莓，覆盆子，菠萝，猕猴桃，哈密瓜，柠檬，酸橙）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患病风险越小</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每周吃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次或以上富叶酸食物（橙色，草莓，覆盆子，菠萝，猕猴桃，哈密瓜，柠檬，酸橙）可降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患病风险（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OR=0.64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>factor ID</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTHFR C</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通便利</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTHFR A1298C</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>发病风险（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FIGN +94762G&gt;C (rs2119289)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基因型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>越高，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患病风险越小）</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTHFR A1298C-AC</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIGN +94762 G&gt;C-GC</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIGN +94762 G&gt;C-CC</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIGN +94762 G&gt;C-C</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>血型A</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型血</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发病风险（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">P-selectin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点突变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>827T/C:CT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>型，</t>
     </r>
     <r>
@@ -4357,7 +5089,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>PAH-CHD</t>
     </r>
@@ -4370,19 +5102,35 @@
       </rPr>
       <t>患病风险越小）</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-selectin 827T/C-CT</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发病风险（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">P-selectin </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -4391,14 +5139,16 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -4407,59 +5157,32 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>827T/C:CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，人群患</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PAH-CHD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>概率降低，与正常人TT型比较</t>
-    </r>
-  </si>
-  <si>
-    <t>P-selectin candidate gene SNPs---827T/C:CT+CC</t>
-  </si>
-  <si>
-    <t>Compared with the patients with TT genotype, the risk of PAH-CHD was decreased in subjects with CC and CT genotypes (OR=0.47, 95% CI=0.24-0.96).</t>
-  </si>
-  <si>
-    <t>PAH-CHD patients(P-selectin gene 827CT+CC)</t>
-  </si>
-  <si>
-    <t>controls(P-selectin gene 827CT+CC)</t>
-  </si>
-  <si>
-    <t>compared with the TT genotype, OR=0.47, 95% CI=0.24-0.96). P=0.016(PAH-CHD vs control)</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>827T/C:CT, PAH-CHD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>患病风险越小-与普通CHD者比较）</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-selectin 827T/C-CC+CT</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -4470,7 +5193,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">P-selectin </t>
     </r>
@@ -4488,7 +5211,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4506,9 +5229,9 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>827T/C: CC+CT</t>
+        <family val="1"/>
+      </rPr>
+      <t>827T/C: CC, PAH-CHD</t>
     </r>
     <r>
       <rPr>
@@ -4517,596 +5240,40 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, PAH-CHD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患病风险越小）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P-selectin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基因</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点突变</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>827T/C:CT+CC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，人群患</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PAH-CHD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>概率降低，与正常人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>型比较</t>
-    </r>
-  </si>
-  <si>
-    <t>P-selectin candidate gene SNPs was not correlated with the susceptibility of PAH-CHD (P&gt;0.05). In addition, performing the analysis in patients with CHD and PAH-CHD, no significant correlation was observed in SNPs and disease susceptibility as well.</t>
-  </si>
-  <si>
-    <t>PAH-CHD patients</t>
-  </si>
-  <si>
-    <t>CHD patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13 (30.23%) </t>
-  </si>
-  <si>
-    <t>32 (18.91) years</t>
-  </si>
-  <si>
-    <t>OR (95%CI)=0.36 (0.21-0.92), P=0.024(PAH-CHD vs CHD)</t>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发病风险（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P-selectin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基因</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点突变</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>827T/C:+CT, PAH-CHD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>患病风险越小-与普通CHD者比较）</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P-selectin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基因</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点突变</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>827T/C:CT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，人群患</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PAH-CHD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>概率降低（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OR=0.36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发病风险（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P-selectin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基因</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点突变</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>827T/C:+CC, PAH-CHD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患病风险越小-与普通CHD者比较）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">P-selectin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基因</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点突变</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>827T/C:CT+CC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，人群患</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PAH-CHD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>概率降低（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OR=0.36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>Food types eaten 3 or more times per week(Oranges, strawberries, raspberries, pineapple, kiwi, cantaloupe, lemons, limes)</t>
-  </si>
-  <si>
-    <t>Eating oranges and other folate rich fruits 3 times a week or more was associated with a significantly lower risk (OR 0.64, 95%CI 0.47–0.89)</t>
-  </si>
-  <si>
-    <t>CHD cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100(41.3%) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">503(52.1%) </t>
-  </si>
-  <si>
-    <t>isolated CHD/non-isolated CHD</t>
-  </si>
-  <si>
-    <t>anomalies of the venous return/ASD/AVSD, OPD/AVC/HLHS/VSD/TOF, TGA/CoA/CACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk factors for congenital heart disease: The Baby Hearts Study, a population-based case-control study </t>
-  </si>
-  <si>
-    <t>adults(mother of CHD offspring)</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Belfast,Northern Ireland, United Kingdom</t>
-  </si>
-  <si>
-    <t>Eupopean</t>
-  </si>
-  <si>
-    <t>mother of CHD offspring</t>
-  </si>
-  <si>
-    <t>Multivariate analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To investigate the role of maternal environmental factors in the aetiology of CHD. </t>
-  </si>
-  <si>
-    <t>adjusted OR(95%CI)=0.64 (0.47–0.89)</t>
-  </si>
-  <si>
-    <t>Eating oranges and other folate rich fruits 3 times a week or more was associated with a significantly lower risk.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发病风险（每周吃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次或以上的富含叶酸食物（橙色，草莓，覆盆子，菠萝，猕猴桃，哈密瓜，柠檬，酸橙）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CHD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患病风险越小</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每周吃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次或以上富叶酸食物（橙色，草莓，覆盆子，菠萝，猕猴桃，哈密瓜，柠檬，酸橙）可降低</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CHD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>患病风险（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OR=0.64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-selectin 827T/C-CC+CC</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>富含叶酸食物（蔬菜水果）</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIGN +94762 G&gt;C-GC</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-selectin 827T/C-CT</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通便利</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5119,13 +5286,13 @@
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5138,37 +5305,37 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0066CC"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -5210,150 +5377,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5378,8 +5408,49 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5400,19 +5471,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5430,7 +5501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5440,176 +5511,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -5619,42 +5522,42 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5662,541 +5565,415 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="106">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="87">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" quotePrefix="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="千位分隔 2" xfId="26"/>
-    <cellStyle name="标题 1" xfId="27" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="29" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="30" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="31" builtinId="7"/>
-    <cellStyle name="常规 2 2" xfId="32"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="33" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="34" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9"/>
-    <cellStyle name="标题" xfId="36" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="37" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="38" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="39" builtinId="40"/>
-    <cellStyle name="注释" xfId="40" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="41" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="42" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="43" builtinId="51"/>
-    <cellStyle name="超链接" xfId="44" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="45" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="46" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="48" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="50" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="千位分隔 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6212,6 +5989,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6335,7 +6115,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -6359,9 +6139,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -6385,7 +6165,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -6438,7 +6218,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -6463,928 +6243,1034 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" customWidth="true"/>
-    <col min="6" max="6" width="19.125" customWidth="true"/>
-    <col min="7" max="7" width="24.25" customWidth="true"/>
-    <col min="10" max="10" width="12.875" customWidth="true"/>
-    <col min="11" max="11" width="13.875" customWidth="true"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="9" max="9" width="15" style="80" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="80" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="17" max="17" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="L1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="M1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="N1" s="56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="59">
         <v>1</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="73">
+      <c r="H2" s="71">
         <v>11</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="L2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="M2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="83">
+      <c r="N2" s="87">
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="60" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="59">
         <v>2</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="73">
+      <c r="H3" s="71">
         <v>12</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="M3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="83"/>
+      <c r="N3" s="87"/>
     </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="60" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="59">
         <v>3</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="71">
         <v>13</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="M4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="83">
+      <c r="N4" s="87">
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="60" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="59">
         <v>4</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="71">
         <v>14</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="M5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="83"/>
+      <c r="N5" s="87"/>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="59">
         <v>5</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="71">
         <v>15</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="M6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="83"/>
+      <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="60" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="59">
         <v>6</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="71">
         <v>16</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="M7" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="83"/>
+      <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="60" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="59">
         <v>7</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="71">
         <v>17</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="M8" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="83"/>
+      <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="7:12">
-      <c r="G9" s="72" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G9" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="71">
         <v>18</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="M9" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="83">
+      <c r="N9" s="81">
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="7:12">
-      <c r="G10" s="69" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G10" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="68">
         <v>19</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="M10" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="83">
+      <c r="N10" s="87">
         <v>604</v>
       </c>
+      <c r="O10" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="70">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="103" t="s">
+        <v>485</v>
+      </c>
+      <c r="R10" s="104">
+        <v>5101</v>
+      </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="59">
         <v>10</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="73">
         <v>21</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="M11" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="83"/>
+      <c r="N11" s="87"/>
+      <c r="Q11" s="103" t="s">
+        <v>503</v>
+      </c>
+      <c r="R11" s="104">
+        <v>5102</v>
+      </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="59"/>
-      <c r="B12" s="62" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="57"/>
+      <c r="B12" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="59">
         <v>0</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="M12" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="83"/>
+      <c r="N12" s="87"/>
+      <c r="Q12" s="103" t="s">
+        <v>504</v>
+      </c>
+      <c r="R12" s="104">
+        <v>5103</v>
+      </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="59"/>
-      <c r="F13" s="62" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="57"/>
+      <c r="F13" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="70">
         <v>31</v>
       </c>
-      <c r="K13" s="65" t="s">
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="M13" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="83"/>
+      <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="59" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="61" t="s">
         <v>42</v>
       </c>
       <c r="C14">
         <v>1110</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="70">
         <v>32</v>
       </c>
-      <c r="K14" s="63" t="s">
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="M14" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="83">
+      <c r="N14" s="81">
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="59"/>
-      <c r="B15" s="63" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="57"/>
+      <c r="B15" s="61" t="s">
         <v>44</v>
       </c>
       <c r="C15">
         <v>1111</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="67">
         <v>33</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="M15" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="83">
+      <c r="N15" s="87">
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="59"/>
-      <c r="B16" s="63" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="57"/>
+      <c r="B16" s="61" t="s">
         <v>47</v>
       </c>
       <c r="C16">
         <v>1112</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="G16" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="72">
         <v>41</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="M16" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="83"/>
+      <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="59"/>
-      <c r="G17" s="74" t="s">
+    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="57"/>
+      <c r="G17" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="72">
         <v>42</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="I17" s="100" t="s">
+        <v>502</v>
+      </c>
+      <c r="J17" s="101">
+        <v>4201</v>
+      </c>
+      <c r="M17" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="83"/>
+      <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="59" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="61" t="s">
         <v>54</v>
       </c>
       <c r="C18">
         <v>501</v>
       </c>
-      <c r="G18" s="74" t="s">
+      <c r="G18" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="74">
+      <c r="H18" s="72">
         <v>43</v>
       </c>
-      <c r="K18" s="65" t="s">
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="M18" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="83"/>
+      <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="63" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="86">
         <v>502</v>
       </c>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="74">
+      <c r="H19" s="72">
         <v>44</v>
       </c>
-      <c r="K19" s="65" t="s">
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="80"/>
+      <c r="M19" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="83"/>
+      <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="63" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="G20" s="76" t="s">
+      <c r="C20" s="86"/>
+      <c r="G20" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="76">
+      <c r="H20" s="74">
         <v>45</v>
       </c>
-      <c r="K20" s="65" t="s">
+      <c r="I20" s="105" t="s">
+        <v>505</v>
+      </c>
+      <c r="J20" s="104">
+        <v>4501</v>
+      </c>
+      <c r="K20" s="80"/>
+      <c r="M20" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="L20" s="83"/>
+      <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="65" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="86">
         <v>503</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="70">
         <v>51</v>
       </c>
-      <c r="K21" s="84" t="s">
+      <c r="K21" s="80"/>
+      <c r="M21" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="83">
+      <c r="N21" s="81">
         <v>607</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="65" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="G22" s="72" t="s">
+      <c r="C22" s="86"/>
+      <c r="G22" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="70">
         <v>52</v>
       </c>
-      <c r="K22" s="69" t="s">
+      <c r="K22" s="80"/>
+      <c r="M22" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="78">
+      <c r="N22" s="76">
         <v>606</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="65" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="64"/>
+      <c r="C23" s="86"/>
     </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="66" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="86">
         <v>504</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="74" t="s">
+      <c r="G24" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="74">
+      <c r="H24" s="72">
         <v>61</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="L24" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="63" t="s">
+      <c r="M24" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="L24" s="83">
+      <c r="N24" s="81">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="66" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="G25" s="74" t="s">
+      <c r="C25" s="86"/>
+      <c r="G25" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="74">
+      <c r="H25" s="72">
         <v>62</v>
       </c>
-      <c r="K25" s="63" t="s">
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="M25" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="83">
+      <c r="N25" s="81">
         <v>701</v>
       </c>
     </row>
-    <row r="26" ht="27" spans="2:8">
-      <c r="B26" s="67" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="65" t="s">
         <v>78</v>
       </c>
       <c r="C26">
         <v>505</v>
       </c>
-      <c r="G26" s="74" t="s">
+      <c r="G26" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="74">
+      <c r="H26" s="72">
         <v>63</v>
       </c>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
     </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="65" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="86">
         <v>506</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="74">
+      <c r="H27" s="72">
         <v>64</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="I27" s="105" t="s">
+        <v>492</v>
+      </c>
+      <c r="J27" s="101">
+        <v>6401</v>
+      </c>
+      <c r="L27" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="K27" s="63" t="s">
+      <c r="M27" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="83">
+      <c r="N27" s="81">
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="65" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="G28" s="74" t="s">
+      <c r="C28" s="86"/>
+      <c r="G28" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="74">
+      <c r="H28" s="72">
         <v>65</v>
       </c>
-      <c r="K28" s="63" t="s">
+      <c r="I28" s="105" t="s">
+        <v>493</v>
+      </c>
+      <c r="J28" s="101">
+        <v>6402</v>
+      </c>
+      <c r="M28" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="83">
+      <c r="N28" s="81">
         <v>801</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="65" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="G29" s="74" t="s">
+      <c r="C29" s="86"/>
+      <c r="G29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="74">
+      <c r="H29" s="72">
         <v>66</v>
       </c>
-      <c r="K29" s="63" t="s">
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="M29" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="L29" s="83">
+      <c r="N29" s="81">
         <v>802</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="63" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="66">
         <v>507</v>
       </c>
-      <c r="G30" s="74" t="s">
+      <c r="G30" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="74">
+      <c r="H30" s="72">
         <v>67</v>
       </c>
+      <c r="I30" s="105" t="s">
+        <v>491</v>
+      </c>
+      <c r="J30" s="101">
+        <v>6701</v>
+      </c>
     </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="65" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="86">
         <v>508</v>
       </c>
-      <c r="G31" s="74" t="s">
+      <c r="G31" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="74">
+      <c r="H31" s="72">
         <v>68</v>
       </c>
-      <c r="J31" s="59" t="s">
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="L31" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="K31" s="65" t="s">
+      <c r="M31" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="83">
+      <c r="N31" s="81">
         <v>401</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="65" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="G32" s="74" t="s">
+      <c r="C32" s="86"/>
+      <c r="G32" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="74">
+      <c r="H32" s="72">
         <v>69</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="M32" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="L32" s="83">
+      <c r="N32" s="81">
         <v>402</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="63" t="s">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="62">
         <v>509</v>
       </c>
-      <c r="K33" s="65" t="s">
+      <c r="M33" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="L33" s="83">
+      <c r="N33" s="81">
         <v>403</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="63" t="s">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="68">
+      <c r="C34" s="66">
         <v>510</v>
       </c>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="72">
+      <c r="H34" s="70">
         <v>71</v>
       </c>
-      <c r="K34" s="65" t="s">
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="M34" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="83">
+      <c r="N34" s="81">
         <v>404</v>
       </c>
     </row>
-    <row r="35" ht="27" spans="2:12">
-      <c r="B35" s="65" t="s">
+    <row r="35" spans="2:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="86">
         <v>511</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="72">
+      <c r="H35" s="70">
         <v>72</v>
       </c>
-      <c r="K35" s="85" t="s">
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="M35" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="L35" s="83">
+      <c r="N35" s="81">
         <v>405</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="65" t="s">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="G36" s="70" t="s">
+      <c r="C36" s="86"/>
+      <c r="G36" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="70">
+      <c r="H36" s="68">
         <v>73</v>
       </c>
-      <c r="K36" s="67"/>
+      <c r="M36" s="65"/>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="63" t="s">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="61" t="s">
         <v>105</v>
       </c>
       <c r="C37">
         <v>512</v>
       </c>
     </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="69" t="s">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="67" t="s">
         <v>106</v>
       </c>
       <c r="C38">
         <v>513</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="F38" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="65" t="s">
+      <c r="G38" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="H38" s="77">
+      <c r="H38" s="75">
         <v>401</v>
       </c>
-      <c r="J38" s="86" t="s">
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="L38" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="K38" s="63" t="s">
+      <c r="M38" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="L38" s="83">
+      <c r="N38" s="81">
         <v>301</v>
       </c>
-      <c r="M38" s="63" t="s">
+      <c r="O38" s="61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="63" t="s">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="61" t="s">
         <v>112</v>
       </c>
       <c r="C39">
         <v>514</v>
       </c>
-      <c r="G39" s="65" t="s">
+      <c r="G39" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="H39" s="77">
+      <c r="H39" s="75">
         <v>402</v>
       </c>
-      <c r="L39" s="83">
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="N39" s="81">
         <v>302</v>
       </c>
-      <c r="M39" s="63" t="s">
+      <c r="O39" s="61" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="63" t="s">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="64">
+      <c r="C40" s="86">
         <v>515</v>
       </c>
-      <c r="G40" s="65" t="s">
+      <c r="G40" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="77">
+      <c r="H40" s="75">
         <v>403</v>
       </c>
-      <c r="L40" s="83">
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="N40" s="81">
         <v>303</v>
       </c>
-      <c r="M40" s="63" t="s">
+      <c r="O40" s="61" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="63" t="s">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="G41" s="65" t="s">
+      <c r="C41" s="86"/>
+      <c r="G41" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="H41" s="77">
+      <c r="H41" s="75">
         <v>404</v>
       </c>
-      <c r="L41" s="83">
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="N41" s="81">
         <v>304</v>
       </c>
-      <c r="M41" s="63" t="s">
+      <c r="O41" s="61" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="69" t="s">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="70">
+      <c r="C42" s="68">
         <v>516</v>
       </c>
-      <c r="G42" s="69" t="s">
+      <c r="G42" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="H42" s="78">
+      <c r="H42" s="76">
         <v>405</v>
       </c>
-      <c r="L42" s="83">
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="N42" s="81">
         <v>300</v>
       </c>
-      <c r="M42" s="63" t="s">
+      <c r="O42" s="61" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" ht="40.5" spans="2:8">
-      <c r="B44" s="71" t="s">
+    <row r="44" spans="2:15" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="70">
+      <c r="C44" s="68">
         <v>507</v>
       </c>
-      <c r="F44" s="79" t="s">
+      <c r="F44" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="G44" s="80" t="s">
+      <c r="G44" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="H44" s="81">
+      <c r="H44" s="79">
         <v>900</v>
       </c>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
     </row>
-    <row r="45" spans="6:8">
-      <c r="F45" s="82"/>
-      <c r="G45" s="80" t="s">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F45" s="80"/>
+      <c r="G45" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="H45" s="81">
+      <c r="H45" s="79">
         <v>901</v>
       </c>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N15:N20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="L15:L20"/>
   </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BA32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AR7" sqref="AR7"/>
+    <sheetView topLeftCell="AK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BC3" sqref="BC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.75" style="5" customWidth="true"/>
+    <col min="1" max="2" width="8.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="5"/>
-    <col min="4" max="4" width="15.625" style="5" customWidth="true"/>
+    <col min="4" max="4" width="15.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.625" style="5"/>
-    <col min="6" max="6" width="8.75" style="6" customWidth="true"/>
+    <col min="6" max="6" width="8.75" style="6" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="5"/>
-    <col min="8" max="8" width="8.75" style="6" customWidth="true"/>
-    <col min="9" max="9" width="8.75" style="5" customWidth="true"/>
-    <col min="10" max="10" width="36.75" style="5" customWidth="true"/>
-    <col min="11" max="11" width="8.75" style="5" customWidth="true"/>
+    <col min="8" max="8" width="8.75" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="36.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="5" customWidth="1"/>
     <col min="12" max="14" width="8.625" style="5"/>
-    <col min="15" max="16" width="8.75" style="5" customWidth="true"/>
+    <col min="15" max="16" width="8.75" style="5" customWidth="1"/>
     <col min="17" max="17" width="8.625" style="5"/>
-    <col min="18" max="18" width="8.75" style="6" customWidth="true"/>
-    <col min="19" max="19" width="17.75" style="5" customWidth="true"/>
-    <col min="20" max="20" width="8.75" style="5" customWidth="true"/>
-    <col min="21" max="21" width="27" style="5" customWidth="true"/>
-    <col min="22" max="22" width="8.75" style="5" customWidth="true"/>
+    <col min="18" max="18" width="8.75" style="6" customWidth="1"/>
+    <col min="19" max="19" width="17.75" style="5" customWidth="1"/>
+    <col min="20" max="20" width="8.75" style="5" customWidth="1"/>
+    <col min="21" max="21" width="27" style="5" customWidth="1"/>
+    <col min="22" max="22" width="8.75" style="5" customWidth="1"/>
     <col min="23" max="23" width="8.625" style="5"/>
-    <col min="24" max="24" width="8.75" style="6" customWidth="true"/>
-    <col min="25" max="26" width="8.75" style="5" customWidth="true"/>
+    <col min="24" max="24" width="8.75" style="6" customWidth="1"/>
+    <col min="25" max="26" width="8.75" style="5" customWidth="1"/>
     <col min="27" max="28" width="8.625" style="5"/>
-    <col min="29" max="29" width="11.5" style="5" customWidth="true"/>
+    <col min="29" max="29" width="11.5" style="5" customWidth="1"/>
     <col min="30" max="32" width="8.625" style="5"/>
-    <col min="33" max="33" width="8.75" style="6" customWidth="true"/>
+    <col min="33" max="33" width="8.75" style="6" customWidth="1"/>
     <col min="34" max="34" width="8.625" style="5"/>
-    <col min="35" max="35" width="8.75" style="6" customWidth="true"/>
+    <col min="35" max="35" width="8.75" style="6" customWidth="1"/>
     <col min="36" max="36" width="8.625" style="5"/>
-    <col min="37" max="37" width="8.75" style="6" customWidth="true"/>
-    <col min="38" max="38" width="12.625" style="5" customWidth="true"/>
-    <col min="39" max="39" width="14.125" style="5" customWidth="true"/>
-    <col min="40" max="40" width="8.75" style="5" customWidth="true"/>
+    <col min="37" max="37" width="8.75" style="6" customWidth="1"/>
+    <col min="38" max="38" width="12.625" style="5" customWidth="1"/>
+    <col min="39" max="39" width="14.125" style="5" customWidth="1"/>
+    <col min="40" max="40" width="8.75" style="5" customWidth="1"/>
     <col min="41" max="41" width="8.625" style="5"/>
-    <col min="42" max="42" width="8.75" style="6" customWidth="true"/>
-    <col min="43" max="43" width="24.5" style="5" customWidth="true"/>
-    <col min="44" max="44" width="34.25" style="5" customWidth="true"/>
-    <col min="45" max="46" width="8.75" style="5" customWidth="true"/>
+    <col min="42" max="42" width="8.75" style="6" customWidth="1"/>
+    <col min="43" max="43" width="26.125" style="5" customWidth="1"/>
+    <col min="44" max="44" width="34.25" style="5" customWidth="1"/>
+    <col min="45" max="46" width="8.75" style="5" customWidth="1"/>
     <col min="47" max="47" width="8.625" style="5"/>
-    <col min="48" max="48" width="10.875" style="6" customWidth="true"/>
-    <col min="49" max="49" width="26.25" style="5" customWidth="true"/>
-    <col min="50" max="50" width="14.25" style="6" customWidth="true"/>
-    <col min="51" max="51" width="26.375" style="6" customWidth="true"/>
-    <col min="52" max="52" width="16" style="5" customWidth="true"/>
-    <col min="53" max="16384" width="8.625" style="5"/>
+    <col min="48" max="48" width="10.875" style="6" customWidth="1"/>
+    <col min="49" max="49" width="26.25" style="5" customWidth="1"/>
+    <col min="50" max="50" width="14.25" style="89" customWidth="1"/>
+    <col min="51" max="51" width="9.5" style="102" customWidth="1"/>
+    <col min="52" max="52" width="8.375" style="102" customWidth="1"/>
+    <col min="53" max="53" width="26.375" style="6" customWidth="1"/>
+    <col min="54" max="54" width="16" style="5" customWidth="1"/>
+    <col min="55" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="52.5" customHeight="true" spans="1:53">
+    <row r="1" spans="1:55" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>127</v>
       </c>
@@ -7532,20 +7418,26 @@
       <c r="AW1" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="AX1" s="47" t="s">
+      <c r="AX1" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="AY1" s="48" t="s">
+      <c r="AY1" s="96" t="s">
+        <v>482</v>
+      </c>
+      <c r="AZ1" s="96" t="s">
+        <v>481</v>
+      </c>
+      <c r="BA1" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BB1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="BA1" s="55" t="s">
+      <c r="BC1" s="53" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="63" customHeight="true" spans="1:53">
+    <row r="2" spans="1:55" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>8120</v>
       </c>
@@ -7624,7 +7516,7 @@
       <c r="Z2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AA2" s="87" t="s">
+      <c r="AA2" s="85" t="s">
         <v>179</v>
       </c>
       <c r="AB2" s="8" t="s">
@@ -7682,7 +7574,7 @@
         <v>185</v>
       </c>
       <c r="AT2" s="41">
-        <v>0.2002</v>
+        <v>0.20019999999999999</v>
       </c>
       <c r="AU2" s="42"/>
       <c r="AV2" s="43">
@@ -7691,20 +7583,26 @@
       <c r="AW2" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AX2" s="49" t="s">
+      <c r="AX2" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AY2" s="50" t="s">
+      <c r="AY2" s="97" t="s">
+        <v>484</v>
+      </c>
+      <c r="AZ2" s="98">
+        <v>4501</v>
+      </c>
+      <c r="BA2" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="AZ2" s="13" t="s">
+      <c r="BB2" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BC2" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="135" spans="1:53">
+    <row r="3" spans="1:55" s="3" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>8085</v>
       </c>
@@ -7838,7 +7736,7 @@
         <v>210</v>
       </c>
       <c r="AS3" s="38">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AT3" s="44">
         <v>0.53</v>
@@ -7850,18 +7748,24 @@
       <c r="AW3" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="AX3" s="47" t="s">
+      <c r="AX3" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="AY3" s="50" t="s">
+      <c r="AY3" s="96" t="s">
+        <v>483</v>
+      </c>
+      <c r="AZ3" s="96">
+        <v>5101</v>
+      </c>
+      <c r="BA3" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="AZ3" s="8" t="s">
+      <c r="BB3" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA3" s="4"/>
+      <c r="BC3" s="4"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="111.75" customHeight="true" spans="1:53">
+    <row r="4" spans="1:55" s="3" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>8085</v>
       </c>
@@ -8007,18 +7911,24 @@
       <c r="AW4" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="AX4" s="47" t="s">
+      <c r="AX4" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="AY4" s="50" t="s">
+      <c r="AY4" s="96" t="s">
+        <v>487</v>
+      </c>
+      <c r="AZ4" s="96">
+        <v>5101</v>
+      </c>
+      <c r="BA4" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="AZ4" s="8" t="s">
+      <c r="BB4" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA4" s="4"/>
+      <c r="BC4" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="94.5" customHeight="true" spans="1:53">
+    <row r="5" spans="1:55" s="2" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>8120</v>
       </c>
@@ -8097,7 +8007,7 @@
       <c r="Z5" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AA5" s="87" t="s">
+      <c r="AA5" s="85" t="s">
         <v>179</v>
       </c>
       <c r="AB5" s="8" t="s">
@@ -8155,7 +8065,7 @@
         <v>185</v>
       </c>
       <c r="AT5" s="41">
-        <v>0.2002</v>
+        <v>0.20019999999999999</v>
       </c>
       <c r="AU5" s="42"/>
       <c r="AV5" s="43">
@@ -8164,20 +8074,26 @@
       <c r="AW5" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AX5" s="49" t="s">
+      <c r="AX5" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AY5" s="50" t="s">
+      <c r="AY5" s="97" t="s">
+        <v>484</v>
+      </c>
+      <c r="AZ5" s="98">
+        <v>4501</v>
+      </c>
+      <c r="BA5" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="AZ5" s="13" t="s">
+      <c r="BB5" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="BA5" s="4" t="s">
+      <c r="BC5" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" ht="111" customHeight="true" spans="1:53">
+    <row r="6" spans="1:55" s="3" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>8181</v>
       </c>
@@ -8323,18 +8239,24 @@
       <c r="AW6" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="AX6" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="AY6" s="50" t="s">
+      <c r="AX6" s="94" t="s">
+        <v>486</v>
+      </c>
+      <c r="AY6" s="96" t="s">
+        <v>488</v>
+      </c>
+      <c r="AZ6" s="96">
+        <v>5102</v>
+      </c>
+      <c r="BA6" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="AZ6" s="8" t="s">
+      <c r="BB6" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA6" s="4"/>
+      <c r="BC6" s="4"/>
     </row>
-    <row r="7" s="3" customFormat="true" ht="88.5" customHeight="true" spans="1:53">
+    <row r="7" spans="1:55" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>8181</v>
       </c>
@@ -8480,18 +8402,24 @@
       <c r="AW7" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="AX7" s="47" t="s">
+      <c r="AX7" s="88" t="s">
         <v>247</v>
       </c>
-      <c r="AY7" s="50" t="s">
+      <c r="AY7" s="96" t="s">
+        <v>489</v>
+      </c>
+      <c r="AZ7" s="96">
+        <v>5102</v>
+      </c>
+      <c r="BA7" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="AZ7" s="8" t="s">
+      <c r="BB7" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA7" s="4"/>
+      <c r="BC7" s="4"/>
     </row>
-    <row r="8" s="3" customFormat="true" ht="103.5" customHeight="true" spans="1:53">
+    <row r="8" spans="1:55" s="3" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>8181</v>
       </c>
@@ -8637,18 +8565,24 @@
       <c r="AW8" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="AX8" s="47" t="s">
+      <c r="AX8" s="88" t="s">
         <v>255</v>
       </c>
-      <c r="AY8" s="50" t="s">
+      <c r="AY8" s="96" t="s">
+        <v>490</v>
+      </c>
+      <c r="AZ8" s="96">
+        <v>5102</v>
+      </c>
+      <c r="BA8" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="AZ8" s="8" t="s">
+      <c r="BB8" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA8" s="4"/>
+      <c r="BC8" s="4"/>
     </row>
-    <row r="9" s="3" customFormat="true" ht="99" customHeight="true" spans="1:53">
+    <row r="9" spans="1:55" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8181</v>
       </c>
@@ -8794,18 +8728,24 @@
       <c r="AW9" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="AX9" s="47" t="s">
+      <c r="AX9" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="AY9" s="50" t="s">
+      <c r="AY9" s="96" t="s">
+        <v>488</v>
+      </c>
+      <c r="AZ9" s="96">
+        <v>5102</v>
+      </c>
+      <c r="BA9" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="AZ9" s="8" t="s">
+      <c r="BB9" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA9" s="4"/>
+      <c r="BC9" s="4"/>
     </row>
-    <row r="10" s="3" customFormat="true" ht="145.5" customHeight="true" spans="1:53">
+    <row r="10" spans="1:55" s="3" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>8181</v>
       </c>
@@ -8951,18 +8891,24 @@
       <c r="AW10" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="AX10" s="47" t="s">
+      <c r="AX10" s="88" t="s">
         <v>247</v>
       </c>
-      <c r="AY10" s="50" t="s">
+      <c r="AY10" s="96" t="s">
+        <v>489</v>
+      </c>
+      <c r="AZ10" s="96">
+        <v>5102</v>
+      </c>
+      <c r="BA10" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="AZ10" s="8" t="s">
+      <c r="BB10" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA10" s="4"/>
+      <c r="BC10" s="4"/>
     </row>
-    <row r="11" s="3" customFormat="true" ht="123.75" customHeight="true" spans="1:53">
+    <row r="11" spans="1:55" s="3" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>8181</v>
       </c>
@@ -9108,18 +9054,24 @@
       <c r="AW11" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="AX11" s="47" t="s">
+      <c r="AX11" s="88" t="s">
         <v>255</v>
       </c>
-      <c r="AY11" s="50" t="s">
+      <c r="AY11" s="96" t="s">
+        <v>490</v>
+      </c>
+      <c r="AZ11" s="96">
+        <v>5102</v>
+      </c>
+      <c r="BA11" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="AZ11" s="8" t="s">
+      <c r="BB11" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA11" s="4"/>
+      <c r="BC11" s="4"/>
     </row>
-    <row r="12" s="3" customFormat="true" ht="146.25" customHeight="true" spans="1:53">
+    <row r="12" spans="1:55" s="3" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>8181</v>
       </c>
@@ -9265,18 +9217,24 @@
       <c r="AW12" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="AX12" s="47" t="s">
+      <c r="AX12" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="AY12" s="50" t="s">
+      <c r="AY12" s="96" t="s">
+        <v>488</v>
+      </c>
+      <c r="AZ12" s="96">
+        <v>5102</v>
+      </c>
+      <c r="BA12" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="AZ12" s="8" t="s">
+      <c r="BB12" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA12" s="4"/>
+      <c r="BC12" s="4"/>
     </row>
-    <row r="13" s="3" customFormat="true" ht="147.75" customHeight="true" spans="1:53">
+    <row r="13" spans="1:55" s="3" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>8181</v>
       </c>
@@ -9422,18 +9380,24 @@
       <c r="AW13" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="AX13" s="47" t="s">
+      <c r="AX13" s="88" t="s">
         <v>247</v>
       </c>
-      <c r="AY13" s="50" t="s">
+      <c r="AY13" s="96" t="s">
+        <v>489</v>
+      </c>
+      <c r="AZ13" s="96">
+        <v>5102</v>
+      </c>
+      <c r="BA13" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="AZ13" s="8" t="s">
+      <c r="BB13" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA13" s="4"/>
+      <c r="BC13" s="4"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="138" customHeight="true" spans="1:53">
+    <row r="14" spans="1:55" s="3" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8181</v>
       </c>
@@ -9567,7 +9531,7 @@
         <v>299</v>
       </c>
       <c r="AS14" s="38">
-        <v>0.00013</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="AT14" s="44">
         <v>0.69</v>
@@ -9579,18 +9543,24 @@
       <c r="AW14" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="AX14" s="47" t="s">
+      <c r="AX14" s="88" t="s">
         <v>255</v>
       </c>
-      <c r="AY14" s="50" t="s">
+      <c r="AY14" s="96" t="s">
+        <v>490</v>
+      </c>
+      <c r="AZ14" s="96">
+        <v>5102</v>
+      </c>
+      <c r="BA14" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="AZ14" s="8" t="s">
+      <c r="BB14" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA14" s="4"/>
+      <c r="BC14" s="4"/>
     </row>
-    <row r="15" s="3" customFormat="true" ht="128.25" customHeight="true" spans="1:53">
+    <row r="15" spans="1:55" s="3" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>8181</v>
       </c>
@@ -9727,7 +9697,7 @@
         <v>310</v>
       </c>
       <c r="AT15" s="44">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AU15" s="38"/>
       <c r="AV15" s="43">
@@ -9736,18 +9706,24 @@
       <c r="AW15" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="AX15" s="47" t="s">
+      <c r="AX15" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="AY15" s="50" t="s">
+      <c r="AY15" s="96" t="s">
+        <v>488</v>
+      </c>
+      <c r="AZ15" s="96">
+        <v>5102</v>
+      </c>
+      <c r="BA15" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="AZ15" s="8" t="s">
+      <c r="BB15" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA15" s="4"/>
+      <c r="BC15" s="4"/>
     </row>
-    <row r="16" s="3" customFormat="true" ht="125.25" customHeight="true" spans="1:53">
+    <row r="16" spans="1:55" s="3" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>8181</v>
       </c>
@@ -9893,18 +9869,24 @@
       <c r="AW16" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="AX16" s="47" t="s">
+      <c r="AX16" s="88" t="s">
         <v>247</v>
       </c>
-      <c r="AY16" s="50" t="s">
+      <c r="AY16" s="96" t="s">
+        <v>489</v>
+      </c>
+      <c r="AZ16" s="96">
+        <v>5102</v>
+      </c>
+      <c r="BA16" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="AZ16" s="8" t="s">
+      <c r="BB16" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA16" s="4"/>
+      <c r="BC16" s="4"/>
     </row>
-    <row r="17" s="3" customFormat="true" ht="133.5" customHeight="true" spans="1:53">
+    <row r="17" spans="1:55" s="3" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>8181</v>
       </c>
@@ -10050,18 +10032,24 @@
       <c r="AW17" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="AX17" s="47" t="s">
+      <c r="AX17" s="88" t="s">
         <v>255</v>
       </c>
-      <c r="AY17" s="50" t="s">
+      <c r="AY17" s="96" t="s">
+        <v>490</v>
+      </c>
+      <c r="AZ17" s="96">
+        <v>5102</v>
+      </c>
+      <c r="BA17" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="AZ17" s="8" t="s">
+      <c r="BB17" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA17" s="4"/>
+      <c r="BC17" s="4"/>
     </row>
-    <row r="18" s="4" customFormat="true" ht="108" spans="1:52">
+    <row r="18" spans="1:55" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>8188</v>
       </c>
@@ -10207,17 +10195,23 @@
       <c r="AW18" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="AX18" s="49" t="s">
+      <c r="AX18" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="AY18" s="50" t="s">
+      <c r="AY18" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="AZ18" s="98">
+        <v>6701</v>
+      </c>
+      <c r="BA18" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="AZ18" s="8" t="s">
+      <c r="BB18" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="true" ht="85.5" customHeight="true" spans="1:53">
+    <row r="19" spans="1:55" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>8188</v>
       </c>
@@ -10363,18 +10357,24 @@
       <c r="AW19" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="AX19" s="49" t="s">
+      <c r="AX19" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="AY19" s="50" t="s">
+      <c r="AY19" s="97" t="s">
+        <v>494</v>
+      </c>
+      <c r="AZ19" s="98">
+        <v>6401</v>
+      </c>
+      <c r="BA19" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="AZ19" s="8" t="s">
+      <c r="BB19" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA19" s="4"/>
+      <c r="BC19" s="4"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="135" spans="1:53">
+    <row r="20" spans="1:55" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>8188</v>
       </c>
@@ -10520,18 +10520,24 @@
       <c r="AW20" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="AX20" s="49" t="s">
+      <c r="AX20" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AY20" s="50" t="s">
+      <c r="AY20" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="AZ20" s="98">
+        <v>6701</v>
+      </c>
+      <c r="BA20" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="AZ20" s="8" t="s">
+      <c r="BB20" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA20" s="4"/>
+      <c r="BC20" s="4"/>
     </row>
-    <row r="21" s="3" customFormat="true" ht="135" spans="1:53">
+    <row r="21" spans="1:55" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>8188</v>
       </c>
@@ -10677,18 +10683,24 @@
       <c r="AW21" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="AX21" s="49" t="s">
+      <c r="AX21" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="AY21" s="50" t="s">
+      <c r="AY21" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="AZ21" s="98">
+        <v>6701</v>
+      </c>
+      <c r="BA21" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="AZ21" s="8" t="s">
+      <c r="BB21" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA21" s="4"/>
+      <c r="BC21" s="4"/>
     </row>
-    <row r="22" s="3" customFormat="true" ht="135" spans="1:53">
+    <row r="22" spans="1:55" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>8188</v>
       </c>
@@ -10834,18 +10846,24 @@
       <c r="AW22" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="AX22" s="49" t="s">
+      <c r="AX22" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="AY22" s="50" t="s">
+      <c r="AY22" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="AZ22" s="98">
+        <v>6701</v>
+      </c>
+      <c r="BA22" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="AZ22" s="8" t="s">
+      <c r="BB22" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA22" s="4"/>
+      <c r="BC22" s="4"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="135" spans="1:53">
+    <row r="23" spans="1:55" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>8188</v>
       </c>
@@ -10979,7 +10997,7 @@
         <v>386</v>
       </c>
       <c r="AS23" s="38">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AT23" s="44">
         <v>0.84</v>
@@ -10991,18 +11009,24 @@
       <c r="AW23" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="AX23" s="49" t="s">
+      <c r="AX23" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="AY23" s="50" t="s">
+      <c r="AY23" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="AZ23" s="98">
+        <v>6701</v>
+      </c>
+      <c r="BA23" s="48" t="s">
         <v>389</v>
       </c>
-      <c r="AZ23" s="8" t="s">
+      <c r="BB23" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA23" s="4"/>
+      <c r="BC23" s="4"/>
     </row>
-    <row r="24" s="3" customFormat="true" ht="135" spans="1:53">
+    <row r="24" spans="1:55" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>8188</v>
       </c>
@@ -11136,7 +11160,7 @@
         <v>395</v>
       </c>
       <c r="AS24" s="38">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AT24" s="44">
         <v>0.84</v>
@@ -11148,18 +11172,24 @@
       <c r="AW24" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="AX24" s="49" t="s">
+      <c r="AX24" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="AY24" s="50" t="s">
+      <c r="AY24" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="AZ24" s="98">
+        <v>6701</v>
+      </c>
+      <c r="BA24" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="AZ24" s="8" t="s">
+      <c r="BB24" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA24" s="4"/>
+      <c r="BC24" s="4"/>
     </row>
-    <row r="25" s="3" customFormat="true" ht="135" spans="1:53">
+    <row r="25" spans="1:55" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>8188</v>
       </c>
@@ -11293,7 +11323,7 @@
         <v>404</v>
       </c>
       <c r="AS25" s="38">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AT25" s="44">
         <v>0.76</v>
@@ -11305,18 +11335,24 @@
       <c r="AW25" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="AX25" s="49" t="s">
+      <c r="AX25" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="AY25" s="50" t="s">
+      <c r="AY25" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="AZ25" s="98">
+        <v>6701</v>
+      </c>
+      <c r="BA25" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="AZ25" s="8" t="s">
+      <c r="BB25" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA25" s="4"/>
+      <c r="BC25" s="4"/>
     </row>
-    <row r="26" s="3" customFormat="true" ht="135" spans="1:53">
+    <row r="26" spans="1:55" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>8188</v>
       </c>
@@ -11402,7 +11438,7 @@
         <v>334</v>
       </c>
       <c r="AC26" s="30">
-        <v>4.87430555555556</v>
+        <v>4.8743055555555603</v>
       </c>
       <c r="AD26" s="8" t="s">
         <v>411</v>
@@ -11450,7 +11486,7 @@
         <v>412</v>
       </c>
       <c r="AS26" s="38">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AT26" s="44">
         <v>0.75</v>
@@ -11462,18 +11498,24 @@
       <c r="AW26" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="AX26" s="49" t="s">
+      <c r="AX26" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="AY26" s="50" t="s">
+      <c r="AY26" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="AZ26" s="98">
+        <v>6701</v>
+      </c>
+      <c r="BA26" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="AZ26" s="8" t="s">
+      <c r="BB26" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA26" s="4"/>
+      <c r="BC26" s="4"/>
     </row>
-    <row r="27" s="3" customFormat="true" ht="135" spans="1:53">
+    <row r="27" spans="1:55" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>8188</v>
       </c>
@@ -11607,7 +11649,7 @@
         <v>421</v>
       </c>
       <c r="AS27" s="38">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AT27" s="44">
         <v>0.71</v>
@@ -11619,18 +11661,24 @@
       <c r="AW27" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="AX27" s="49" t="s">
+      <c r="AX27" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="AY27" s="50" t="s">
+      <c r="AY27" s="98" t="s">
+        <v>495</v>
+      </c>
+      <c r="AZ27" s="98">
+        <v>6701</v>
+      </c>
+      <c r="BA27" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="AZ27" s="8" t="s">
+      <c r="BB27" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="BA27" s="4"/>
+      <c r="BC27" s="4"/>
     </row>
-    <row r="28" s="3" customFormat="true" ht="84" customHeight="true" spans="1:53">
+    <row r="28" spans="1:55" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>8272</v>
       </c>
@@ -11773,21 +11821,27 @@
       <c r="AV28" s="45">
         <v>901</v>
       </c>
-      <c r="AW28" s="51" t="s">
+      <c r="AW28" s="49" t="s">
         <v>426</v>
       </c>
-      <c r="AX28" s="47" t="s">
+      <c r="AX28" s="94" t="s">
+        <v>496</v>
+      </c>
+      <c r="AY28" s="99" t="s">
+        <v>497</v>
+      </c>
+      <c r="AZ28" s="99">
+        <v>5103</v>
+      </c>
+      <c r="BA28" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="AY28" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="AZ28" s="10" t="s">
+      <c r="BB28" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="BA28" s="56"/>
+      <c r="BC28" s="54"/>
     </row>
-    <row r="29" s="3" customFormat="true" ht="96.75" customHeight="true" spans="1:53">
+    <row r="29" spans="1:55" s="3" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>8272</v>
       </c>
@@ -11798,7 +11852,7 @@
         <v>191</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>19</v>
@@ -11816,16 +11870,16 @@
         <v>0</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K29" s="8">
         <v>1549</v>
       </c>
       <c r="L29" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>429</v>
@@ -11918,10 +11972,10 @@
         <v>440</v>
       </c>
       <c r="AR29" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="AS29" s="38" t="s">
         <v>449</v>
-      </c>
-      <c r="AS29" s="38" t="s">
-        <v>450</v>
       </c>
       <c r="AT29" s="41">
         <v>0.47</v>
@@ -11930,21 +11984,27 @@
       <c r="AV29" s="45">
         <v>901</v>
       </c>
-      <c r="AW29" s="51" t="s">
-        <v>446</v>
-      </c>
-      <c r="AX29" s="47" t="s">
+      <c r="AW29" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="AX29" s="88" t="s">
+        <v>450</v>
+      </c>
+      <c r="AY29" s="99" t="s">
+        <v>499</v>
+      </c>
+      <c r="AZ29" s="99">
+        <v>5103</v>
+      </c>
+      <c r="BA29" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="AY29" s="52" t="s">
-        <v>452</v>
-      </c>
-      <c r="AZ29" s="10" t="s">
+      <c r="BB29" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="BA29" s="56"/>
+      <c r="BC29" s="54"/>
     </row>
-    <row r="30" s="3" customFormat="true" ht="102" customHeight="true" spans="1:53">
+    <row r="30" spans="1:55" s="3" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>8272</v>
       </c>
@@ -11973,22 +12033,22 @@
         <v>0</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K30" s="8">
         <v>1551</v>
       </c>
       <c r="L30" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="M30" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>429</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P30" s="21">
         <v>539</v>
@@ -12027,7 +12087,7 @@
         <v>434</v>
       </c>
       <c r="AB30" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AC30" s="10" t="s">
         <v>175</v>
@@ -12075,10 +12135,10 @@
         <v>440</v>
       </c>
       <c r="AR30" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="AS30" s="38" t="s">
         <v>458</v>
-      </c>
-      <c r="AS30" s="38" t="s">
-        <v>459</v>
       </c>
       <c r="AT30" s="44">
         <v>0.36</v>
@@ -12087,21 +12147,27 @@
       <c r="AV30" s="43">
         <v>900</v>
       </c>
-      <c r="AW30" s="53" t="s">
-        <v>453</v>
-      </c>
-      <c r="AX30" s="47" t="s">
-        <v>460</v>
-      </c>
-      <c r="AY30" s="52" t="s">
-        <v>461</v>
-      </c>
-      <c r="AZ30" s="54" t="s">
+      <c r="AW30" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="AX30" s="94" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY30" s="99" t="s">
+        <v>497</v>
+      </c>
+      <c r="AZ30" s="99">
+        <v>5103</v>
+      </c>
+      <c r="BA30" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="BB30" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="BA30" s="57"/>
+      <c r="BC30" s="55"/>
     </row>
-    <row r="31" s="3" customFormat="true" ht="110.25" customHeight="true" spans="1:53">
+    <row r="31" spans="1:55" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>8272</v>
       </c>
@@ -12112,7 +12178,7 @@
         <v>191</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>19</v>
@@ -12130,22 +12196,22 @@
         <v>0</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K31" s="8">
         <v>1552</v>
       </c>
       <c r="L31" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="M31" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>429</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P31" s="21">
         <v>539</v>
@@ -12184,7 +12250,7 @@
         <v>434</v>
       </c>
       <c r="AB31" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AC31" s="10" t="s">
         <v>175</v>
@@ -12232,10 +12298,10 @@
         <v>440</v>
       </c>
       <c r="AR31" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="AS31" s="38" t="s">
         <v>458</v>
-      </c>
-      <c r="AS31" s="38" t="s">
-        <v>459</v>
       </c>
       <c r="AT31" s="44">
         <v>0.36</v>
@@ -12244,21 +12310,27 @@
       <c r="AV31" s="43">
         <v>900</v>
       </c>
-      <c r="AW31" s="53" t="s">
-        <v>453</v>
-      </c>
-      <c r="AX31" s="47" t="s">
-        <v>462</v>
-      </c>
-      <c r="AY31" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="AZ31" s="54" t="s">
+      <c r="AW31" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="AX31" s="94" t="s">
+        <v>500</v>
+      </c>
+      <c r="AY31" s="99" t="s">
+        <v>501</v>
+      </c>
+      <c r="AZ31" s="99">
+        <v>5103</v>
+      </c>
+      <c r="BA31" s="50" t="s">
+        <v>460</v>
+      </c>
+      <c r="BB31" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="BA31" s="57"/>
+      <c r="BC31" s="55"/>
     </row>
-    <row r="32" s="3" customFormat="true" ht="97.5" customHeight="true" spans="1:53">
+    <row r="32" spans="1:55" s="3" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>8793</v>
       </c>
@@ -12266,10 +12338,10 @@
         <v>4119</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>16</v>
@@ -12287,46 +12359,46 @@
         <v>0</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K32" s="8">
         <v>4119</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>225</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P32" s="18">
         <v>749</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="R32" s="23">
         <v>1110</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="T32" s="8">
         <v>32092068</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="V32" s="8">
         <v>2020</v>
       </c>
       <c r="W32" s="8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="X32" s="15">
         <v>504</v>
@@ -12344,16 +12416,16 @@
         <v>175</v>
       </c>
       <c r="AC32" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AD32" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AF32" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AG32" s="15">
         <v>606</v>
@@ -12371,10 +12443,10 @@
         <v>800</v>
       </c>
       <c r="AL32" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM32" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AN32" s="8">
         <v>4119</v>
@@ -12386,10 +12458,10 @@
         <v>403</v>
       </c>
       <c r="AQ32" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AR32" s="33" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AS32" s="38" t="s">
         <v>185</v>
@@ -12401,65 +12473,71 @@
       <c r="AV32" s="43">
         <v>900</v>
       </c>
-      <c r="AW32" s="53" t="s">
-        <v>481</v>
-      </c>
-      <c r="AX32" s="49" t="s">
-        <v>482</v>
-      </c>
-      <c r="AY32" s="52" t="s">
-        <v>483</v>
-      </c>
-      <c r="AZ32" s="13" t="s">
+      <c r="AW32" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="AX32" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="AY32" s="100" t="s">
+        <v>502</v>
+      </c>
+      <c r="AZ32" s="101">
+        <v>4201</v>
+      </c>
+      <c r="BA32" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="BB32" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="BA32" s="11"/>
+      <c r="BC32" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B17">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B25">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B30">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>